--- a/数据整理/stocks/港股/01918-融创中国.xlsx
+++ b/数据整理/stocks/港股/01918-融创中国.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006127</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.72</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.89</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.88</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.63</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>006768</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>华安沪港深优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>006127</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.33</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006768</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安沪港深优选混合</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>004263</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>华安沪港深机会灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.24</t>
+          <t>52.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004263</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安沪港深机会灵活配置混合</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>20.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.75</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>005646</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>中海沪港深多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -828,15 +948,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.51</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.07</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>006127</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.88</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006127</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -996,15 +1176,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>94.57</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2.66</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01918-融创中国.xlsx
+++ b/数据整理/stocks/港股/01918-融创中国.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01918-融创中国.xlsx
+++ b/数据整理/stocks/港股/01918-融创中国.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01918-融创中国.xlsx
+++ b/数据整理/stocks/港股/01918-融创中国.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01918-融创中国.xlsx
+++ b/数据整理/stocks/港股/01918-融创中国.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.27</v>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1979,14 +2022,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1995,14 +2060,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.66</v>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2011,13 +2098,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.44</v>
       </c>
     </row>
